--- a/Data/Bystrategi_Grenland/Klima/Luftforurensing/Årsmiddel/PM10 og NO2 År (2010-2024).xlsx
+++ b/Data/Bystrategi_Grenland/Klima/Luftforurensing/Årsmiddel/PM10 og NO2 År (2010-2024).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/Bystrategi_Grenland/Klima/Luftforurensing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telemarkfylke-my.sharepoint.com/personal/even_sannes_riiser_telemarkfylke_no/Documents/Github/Telemark/Data/Bystrategi_Grenland/Klima/Luftforurensing/Årsmiddel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E8009B60-76E1-4065-8B90-45B942140D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C7897FC-1AE0-42E3-B23B-0534C380BE9E}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{E8009B60-76E1-4065-8B90-45B942140D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{286993BD-FB34-43AF-B73E-1177F4C6F764}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="38610" windowHeight="20985" xr2:uid="{FA108870-1A76-4BC8-A7D3-FFE6A1CDA230}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{FA108870-1A76-4BC8-A7D3-FFE6A1CDA230}"/>
   </bookViews>
   <sheets>
     <sheet name="Tidsserie_2361-2473-2723-2724-1" sheetId="1" r:id="rId1"/>
@@ -923,12 +923,21 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
